--- a/Write/Writting.xlsx
+++ b/Write/Writting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chukexin1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/个人数据/GitHub/work-life-balance/Write/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AECCA6-1FE9-D541-B5EA-26D687C3D757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD4A68-8FB7-7F4B-8C0A-7D9BBFAC99F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{9EEECD0E-ECF9-4564-9F10-A16976591964}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{9EEECD0E-ECF9-4564-9F10-A16976591964}"/>
   </bookViews>
   <sheets>
     <sheet name="discuss型大作文&amp;advantage型" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,9 +617,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,9 +648,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1008,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="112">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1025,7 +1019,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="61.75" customHeight="1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1031,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1048,7 +1042,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1056,7 +1050,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="64">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1067,108 +1061,108 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1187,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F3E73E-7CC6-48F4-B3EF-03CC0468907F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
@@ -1219,7 +1213,7 @@
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1233,7 +1227,7 @@
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1247,7 +1241,7 @@
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1261,7 +1255,7 @@
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1269,114 +1263,114 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="32">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="48">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="48">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1423,7 +1417,7 @@
       <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1437,7 +1431,7 @@
       <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
@@ -1449,7 +1443,7 @@
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
@@ -1461,128 +1455,128 @@
       <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1613,21 +1607,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="80">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1636,10 +1630,10 @@
       <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="224">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1653,7 +1647,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1662,10 +1656,10 @@
       <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="48">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1674,7 +1668,7 @@
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
